--- a/medicine/Psychotrope/Sour_mash/Sour_mash.xlsx
+++ b/medicine/Psychotrope/Sour_mash/Sour_mash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sour mash (litt. moût aigre) est un procédé qui consiste à utiliser une partie de la fermentation précédente dans le moût (mash) suivant pour donner plus de goût au whisky. Ce procédé est utilisé principalement dans la fabrication du bourbon et du Tennessee whiskey.
  Portail des États-Unis   Portail du whisky                    </t>
